--- a/biology/Médecine/Roger_Vétillard/Roger_Vétillard.xlsx
+++ b/biology/Médecine/Roger_Vétillard/Roger_Vétillard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Roger_V%C3%A9tillard</t>
+          <t>Roger_Vétillard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Roger Vétillard, né le 21 septembre 1944 à Sétif, est un médecin (pneumo-oncologue) et écrivain français.
 Passionné par l'histoire de l'Algérie coloniale, il y consacre des recherches en autodidacte depuis 1995. Il est l'auteur de nombreux ouvrages sur cette période, en particulier sur les massacres de 1945 et de 1955 dans le Constantinois.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Roger_V%C3%A9tillard</t>
+          <t>Roger_Vétillard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Roger Vétillard a commencé ses études au lycée Eugène-Albertini de Sétif en 1955. Il rejoint en 1961 le lycée Pierre-de-Fermat à Toulouse. Il a poursuivi ensuite des études à la faculté de médecine de Toulouse où il soutient sa thèse de doctorat en 1970 (Contribution à l'étude étiologique des insuffisances respiratoires aiguës au cours des bronchopneumopathies chroniques – directeur de Thèse Jean Miguérès)[réf. souhaitée].
 Il a reçu des certifications en Biologie appliquée à l'activité physique et sportive (Toulouse, 1971), en pneumophtisiologie (Toulouse 1973), en immuno-allergologie (Toulouse 1981) et en oncologie thoracique (Paris 1995)[réf. souhaitée].
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Roger_V%C3%A9tillard</t>
+          <t>Roger_Vétillard</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,11 +560,13 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son premier livre en 2008 recense tous les faits liés aux massacres de mai 1945 à Sétif, sa ville natale, et propose des nouveaux éléments[1],[2].
-Comme l'a signalé Gilbert Meynier, historien français spécialiste de l'Algérie, l'analyse de Roger Vétillard va en effet à rebours des représentations habituelles de la guerre d'Algérie[3] mais n'est en pas moins valable. Le cinéaste Jean-Pierre Lledo insiste lui aussi sur l'originalité de la démonstration en 45 preuves[4] que la guerre d'Algérie avait bien une dimension religieuse. Dans la revue La Nef, Annie Laurent estime que Roger Vétillard pose un regard « lucide et objectif »[5].
-De l'autre côté de la Méditerranée, dans son pays natal, l'Algérie, son œuvre est remarquée, entre autres par La Dépêche de Kabylie qui estime que « l’amour de l’Algérie se voit encore sur le visage de l’auteur »[6] et par le journal national algérien La Cité qui juge ainsi[7] son œuvre riche, prudente et profonde.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son premier livre en 2008 recense tous les faits liés aux massacres de mai 1945 à Sétif, sa ville natale, et propose des nouveaux éléments,.
+Comme l'a signalé Gilbert Meynier, historien français spécialiste de l'Algérie, l'analyse de Roger Vétillard va en effet à rebours des représentations habituelles de la guerre d'Algérie mais n'est en pas moins valable. Le cinéaste Jean-Pierre Lledo insiste lui aussi sur l'originalité de la démonstration en 45 preuves que la guerre d'Algérie avait bien une dimension religieuse. Dans la revue La Nef, Annie Laurent estime que Roger Vétillard pose un regard « lucide et objectif ».
+De l'autre côté de la Méditerranée, dans son pays natal, l'Algérie, son œuvre est remarquée, entre autres par La Dépêche de Kabylie qui estime que « l’amour de l’Algérie se voit encore sur le visage de l’auteur » et par le journal national algérien La Cité qui juge ainsi son œuvre riche, prudente et profonde.
 Depuis 2014, il est membre du Conseil Scientifique de la Fondation pour la fondation pour la mémoire de la guerre d'Algérie, des combats du Maroc et de Tunisie[réf. souhaitée].
 En 2022, il a publié une étude originale concernant la Compagnie genevoise des colonies suisses de Sétif, colonie qui pendant un siècle, de 1853 à 1956, a exploité 15 000 hectares sur les hauts plateaux sétifiens, sujet peu traité par les historiens français[réf. souhaitée].
 </t>
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Roger_V%C3%A9tillard</t>
+          <t>Roger_Vétillard</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,19 +599,58 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Livres
-Sétif, mai 1945 : massacres en Algérie  (préf. Guy Pervillé), Versailles, Éditions de Paris, 6 février 2008, 589 p. (ISBN 978-2-85162-213-6 et 2-85162-213-7, OCLC 213435395) – Prix Robert-Cornevin 2008 de l'Académie des sciences d’outre-mer.
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sétif, mai 1945 : massacres en Algérie  (préf. Guy Pervillé), Versailles, Éditions de Paris, 6 février 2008, 589 p. (ISBN 978-2-85162-213-6 et 2-85162-213-7, OCLC 213435395) – Prix Robert-Cornevin 2008 de l'Académie des sciences d’outre-mer.
 Sétif, Guelma mai 1945 : Massacres en Algérie  (préf. Guy Pervillé), Versailles, Éditions de Paris, 1er janvier 2011, 2e éd. (1re éd. 2008), 604 p. (ISBN 978-2-85162-260-0 et 2-85162-260-9, OCLC 836106418)
-20 août 1955 dans le nord-constantinois : Un tournant dans la guerre d'Algérie?  (préf. Guy Pervillé), Paris, Riveneuve éditions, 26 avril 2012, 350 p. (ISBN 978-2-36013-095-5 et 2-36013-095-1, OCLC 794035810) – 3ème édition augmentée 2014, Prix Jean Pommier 2014 et prix spécial du salon du livre de Toulouse[8]
+20 août 1955 dans le nord-constantinois : Un tournant dans la guerre d'Algérie?  (préf. Guy Pervillé), Paris, Riveneuve éditions, 26 avril 2012, 350 p. (ISBN 978-2-36013-095-5 et 2-36013-095-1, OCLC 794035810) – 3ème édition augmentée 2014, Prix Jean Pommier 2014 et prix spécial du salon du livre de Toulouse
 La mort mysterieuse du colonel Halpert le 15 février 1946 à Constantine, Friedberg, EditionAtlantiS, coll. « France-Algérie », 30 juin 2016, 90 p. (ISBN 978-3-932711-56-5 et 3-932711-56-4, OCLC 953713249)
 Un regard sur la guerre d'Algérie  (préf. Kader Benamara), Paris, Riveneuve éditions, 25 août 2016, 324 p. (ISBN 978-2-36013-407-6 et 2-36013-407-8, OCLC 957195238)
 Français d'Algérie et Algériens avant 1962 : Témoignages croisés, Paris, Hémisphères éditions, 2 septembre 2017, 173 p. (ISBN 978-2-37701-000-4 et 2-37701-000-8, OCLC 1012339512)
 Frédéric Grasset, Antoine Champeaux, André Brochier et Roger Vétillard, Algérie 1945-1954 : Histoire-Mémoire, Paris, Riveneuve éditions, coll. « Cahiers pour la mémoire de tous et la mémoire de tout », 14 décembre 2017, 91 p. (ISBN 978-2-36013-463-2 et 2-36013-463-9, OCLC 1035798552)
 La dimension religieuse de la guerre d'Algérie 1954-1962  (préf. Gregor Mathias, postface Wolf Albes), Friedberg, coll. « France-Algérie », 6 août 2018, 185 p. (ISBN 978-3-932711-59-6 et 3-932711-59-9, OCLC 1048227032) – Prix spécial de l'Académie des Livres de Toulouse, 2018.
 La guerre d'Algérie, une guerre sainte ?  (préf. Guy Pervillé), Friedberg, EditionAtlantiS, coll. « France-Algérie », 24 avril 2020, 300 p. (ISBN 978-3-932711-68-8 et 3-932711-68-8, OCLC 1230480524)
-La Compagnie genevoise de Sétif : Une colonie suisse en Algérie (1853-1956)  (préf. Jean-Pierre et Patrick Ryf), Paris, Maisonneuve &amp; Larose nouvelles éditions/Hémisphères éditions, 7 avril 2022, 222 p. (ISBN 978-2-37701-126-1 et 2-37701-126-8, OCLC 1313798381)
-Articles et contributions
-«L’insurrection de mai 1945 en Algérie», in Wolf Albes, L’Hôte, la nouvelle d’Albert Camus et la bande dessinée de Jacques Ferrandez dans le contexte colonial, éditions Atlantis, Friedberg, 2014, p. 89-94.
+La Compagnie genevoise de Sétif : Une colonie suisse en Algérie (1853-1956)  (préf. Jean-Pierre et Patrick Ryf), Paris, Maisonneuve &amp; Larose nouvelles éditions/Hémisphères éditions, 7 avril 2022, 222 p. (ISBN 978-2-37701-126-1 et 2-37701-126-8, OCLC 1313798381)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Roger_Vétillard</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roger_V%C3%A9tillard</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Articles et contributions</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>«L’insurrection de mai 1945 en Algérie», in Wolf Albes, L’Hôte, la nouvelle d’Albert Camus et la bande dessinée de Jacques Ferrandez dans le contexte colonial, éditions Atlantis, Friedberg, 2014, p. 89-94.
 «20 août 1955 dans le Nord-Constantinois : un tournant dans la guerre d'Algérie», in Wolf Albes, L’Hôte, la nouvelle d’Albert Camus et la bande dessinée de Jacques Ferrandez dans le contexte colonial, éditions Atlantis, Friedberg, 2014, p. 95-100.
 «Les insurrections en Algérie entre 1830 et 1916», in F. Grasset, A. Champeaux, A. Brochier : Algérie 1945-1954 - Histoire-mémoire, éditions Riveneuve, Paris, 2017.
 " Eugène Albertini, un historien du monde antique en Algérie", in L'Algérianiste n°175, 2021, pp 80-93.
